--- a/closure.xlsx
+++ b/closure.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDCORZO\Desktop\3_2\compi\Proyecto Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B539067-C93A-4130-9C4B-28D65FAD9D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5740100-46A8-4EBE-8F08-8269EB0F833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>States</t>
   </si>
@@ -88,6 +89,60 @@
   </si>
   <si>
     <t>err</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>NFA State</t>
+  </si>
+  <si>
+    <t>{0,2,4,6,7}</t>
+  </si>
+  <si>
+    <t>{1,9}</t>
+  </si>
+  <si>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>{0,1,2,4,5,7,9}</t>
+  </si>
+  <si>
+    <t>{6}</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>{3,11}</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>{0,2,3,4,5,7}</t>
+  </si>
+  <si>
+    <t>{0,2,3,4,5,7,11}</t>
+  </si>
+  <si>
+    <t>{3,13}</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>{0,2,3,4,5,7,13}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cual es el accept state?</t>
+  </si>
+  <si>
+    <t>new dfa states</t>
   </si>
 </sst>
 </file>
@@ -119,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,13 +182,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +222,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3416D251-96AC-45EA-AF9A-A0B51052FF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847726" y="1781175"/>
+          <a:ext cx="5048249" cy="2347402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F36FC9C-133D-4C42-AE51-96138FB7170F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="4133850"/>
+          <a:ext cx="6372225" cy="1999794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -654,4 +820,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1BD4DA-9207-47B1-A881-835CEBE27BCE}">
+  <dimension ref="D3:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/closure.xlsx
+++ b/closure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDCORZO\Desktop\3_2\compi\Proyecto Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5740100-46A8-4EBE-8F08-8269EB0F833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A1EAD-616E-44FB-B13F-146592CC1118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>States</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>new dfa states</t>
+  </si>
+  <si>
+    <t>(a|b)*abb</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
   <dimension ref="D3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +857,9 @@
         <v>18</v>
       </c>
       <c r="J3" s="2"/>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">

--- a/closure.xlsx
+++ b/closure.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDCORZO\Desktop\3_2\compi\Proyecto Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A1EAD-616E-44FB-B13F-146592CC1118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D3E48-9ECF-4E1F-AC8A-E2E4D6636C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="big graph" sheetId="3" r:id="rId3"/>
+    <sheet name="exp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>States</t>
   </si>
@@ -146,6 +148,96 @@
   </si>
   <si>
     <t>(a|b)*abb</t>
+  </si>
+  <si>
+    <t>start=19</t>
+  </si>
+  <si>
+    <t>dfa states</t>
+  </si>
+  <si>
+    <t>nfa states</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>{0,2,3,4,5,6,14,19}</t>
+  </si>
+  <si>
+    <t>{1,7,15}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{5}</t>
+  </si>
+  <si>
+    <t>{9,17}</t>
+  </si>
+  <si>
+    <t>{12,10,13}</t>
+  </si>
+  <si>
+    <t>{11}</t>
+  </si>
+  <si>
+    <t>{10,13}</t>
+  </si>
+  <si>
+    <t>start=20</t>
+  </si>
+  <si>
+    <t>{20}</t>
+  </si>
+  <si>
+    <t>{{4},{6},{14}}</t>
+  </si>
+  <si>
+    <t>{{1},{7},{15}}</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>e-closure</t>
+  </si>
+  <si>
+    <t>{0,5}</t>
+  </si>
+  <si>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>{1,5}</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>{3,9}</t>
+  </si>
+  <si>
+    <t>{0,1,2,4,7,8}</t>
+  </si>
+  <si>
+    <t>{3,6,7,1,2,3,8,9}</t>
+  </si>
+  <si>
+    <t>{5,10}</t>
+  </si>
+  <si>
+    <t>{5,6,7,8,1,2,4}</t>
+  </si>
+  <si>
+    <t>{5,6,7,8,1,2,4,10}</t>
+  </si>
+  <si>
+    <t>{12}</t>
+  </si>
+  <si>
+    <t>IF nfa.accept_state in nfa_states: dfa es accepting state</t>
   </si>
 </sst>
 </file>
@@ -829,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1BD4DA-9207-47B1-A881-835CEBE27BCE}">
   <dimension ref="D3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
@@ -992,4 +1084,421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649A486F-89E8-4911-9F5E-4E9A5E8CA134}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"ec("&amp;B4&amp;")"</f>
+        <v>ec({20})</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"ec("&amp;B5&amp;")"</f>
+        <v>ec({1,7,15})</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>F5</f>
+        <v>{9,17}</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"ec("&amp;B6&amp;")"</f>
+        <v>ec({9,17})</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"ec("&amp;B7&amp;")"</f>
+        <v>ec({11})</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"ec("&amp;B11&amp;")"</f>
+        <v>ec({20})</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"ec("&amp;B12&amp;")"</f>
+        <v>ec({{1},{7},{15}})</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3961749-7875-4EF4-8382-16DEC23EF66E}">
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"ec("&amp;B3&amp;")"</f>
+        <v>ec({0})</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"ec("&amp;B4&amp;")"</f>
+        <v>ec({1})</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f>B2</f>
+        <v>dfa states</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:E7" si="0">C2</f>
+        <v>e-closure</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>nfa states</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"ec("&amp;B8&amp;")"</f>
+        <v>ec({0})</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"ec("&amp;B9&amp;")"</f>
+        <v>ec({3,9})</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"ec("&amp;B10&amp;")"</f>
+        <v>ec({5})</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"ec("&amp;B11&amp;")"</f>
+        <v>ec({5,10})</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"ec("&amp;B12&amp;")"</f>
+        <v>ec({11})</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"ec("&amp;B13&amp;")"</f>
+        <v>ec({12})</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/closure.xlsx
+++ b/closure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDCORZO\Desktop\3_2\compi\Proyecto Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D3E48-9ECF-4E1F-AC8A-E2E4D6636C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA7CE7-1F4B-48F1-BBC5-AEE02DA72112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3961749-7875-4EF4-8382-16DEC23EF66E}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="str">
-        <f>"ec("&amp;B8&amp;")"</f>
+        <f t="shared" ref="C8:C13" si="1">"ec("&amp;B8&amp;")"</f>
         <v>ec({0})</v>
       </c>
       <c r="D8" t="s">
@@ -1378,7 +1378,7 @@
         <v>59</v>
       </c>
       <c r="C9" t="str">
-        <f>"ec("&amp;B9&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>ec({3,9})</v>
       </c>
       <c r="D9" t="s">
@@ -1402,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="str">
-        <f>"ec("&amp;B10&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>ec({5})</v>
       </c>
       <c r="D10" t="s">
@@ -1426,7 +1426,7 @@
         <v>62</v>
       </c>
       <c r="C11" t="str">
-        <f>"ec("&amp;B11&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>ec({5,10})</v>
       </c>
       <c r="D11" t="s">
@@ -1450,7 +1450,7 @@
         <v>47</v>
       </c>
       <c r="C12" t="str">
-        <f>"ec("&amp;B12&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>ec({11})</v>
       </c>
       <c r="D12" t="s">
@@ -1474,7 +1474,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="str">
-        <f>"ec("&amp;B13&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>ec({12})</v>
       </c>
       <c r="D13" t="s">
